--- a/Dépendances-Vue.xlsx
+++ b/Dépendances-Vue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F8EFCD-ED0E-410D-B91D-01290A203BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B0C206-9531-46D9-BF21-BC6C61ECC446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="510" windowWidth="18660" windowHeight="14910" tabRatio="729" activeTab="1" xr2:uid="{967B083D-65BC-458B-8850-14F308624B6F}"/>
+    <workbookView xWindow="9885" yWindow="510" windowWidth="18660" windowHeight="14910" tabRatio="729" xr2:uid="{967B083D-65BC-458B-8850-14F308624B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,6 @@
     <sheet name="Feuil8" sheetId="8" r:id="rId8"/>
     <sheet name="Feuil9" sheetId="9" r:id="rId9"/>
     <sheet name="Feuil10" sheetId="11" r:id="rId10"/>
-    <sheet name="Feuil11" sheetId="12" r:id="rId11"/>
-    <sheet name="Feuil12" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="101">
   <si>
     <t>BoutonHelp</t>
   </si>
@@ -716,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAF0401-81C4-4C7F-B0D5-CD38D2F7CBEE}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +732,7 @@
         <v>20</v>
       </c>
       <c r="C1" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -886,7 +884,7 @@
         <v>35</v>
       </c>
       <c r="C20" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,23 +897,23 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -923,7 +921,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -931,15 +929,15 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>5</v>
+      <c r="A29" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -947,7 +945,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -955,7 +953,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -963,7 +961,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -971,7 +969,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -979,7 +977,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -987,7 +985,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -995,15 +993,15 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>14</v>
+      <c r="A37" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1011,15 +1009,15 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>17</v>
+      <c r="A39" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1027,7 +1025,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1035,7 +1033,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1043,7 +1041,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1051,7 +1049,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1059,7 +1057,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1067,7 +1065,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1075,7 +1073,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1083,7 +1081,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1099,7 +1097,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1107,7 +1105,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1115,7 +1113,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1123,7 +1121,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1131,7 +1129,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1139,7 +1137,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1147,7 +1145,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1155,7 +1153,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1163,7 +1161,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1171,7 +1169,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -1179,7 +1177,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -1187,7 +1185,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -1195,7 +1193,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -1203,7 +1201,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -1211,7 +1209,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1219,7 +1217,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1227,7 +1225,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -1235,7 +1233,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -1243,7 +1241,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -1251,7 +1249,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -1259,7 +1257,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -1267,7 +1265,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -1275,9 +1273,25 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C73" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1289,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC28EB0-C470-43E3-B841-5ED766C54CB7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,126 +1316,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222EA89E-1BD4-425A-AA9D-D174B1C51941}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="1">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C28387B-D23B-46DF-94D7-B3CB387421C0}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1451,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5335FCE-8506-4A72-B809-C1BEFE2CA306}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -2801,10 +2701,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7310A333-89B2-4081-937F-8D572437A9A4}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,6 +3154,42 @@
         <v>6</v>
       </c>
     </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3261,10 +3197,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDB05CB-FDB9-4072-85C6-D7C3BD9EA04E}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A6:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3273,64 +3209,28 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-    </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -3339,61 +3239,61 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -3402,35 +3302,71 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C25" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="1">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3443,7 +3379,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dépendances-Vue.xlsx
+++ b/Dépendances-Vue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B0C206-9531-46D9-BF21-BC6C61ECC446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1097AC4-DA0A-460D-9BB7-E67F0B076229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="510" windowWidth="18660" windowHeight="14910" tabRatio="729" xr2:uid="{967B083D-65BC-458B-8850-14F308624B6F}"/>
+    <workbookView xWindow="9885" yWindow="510" windowWidth="18660" windowHeight="14910" tabRatio="729" activeTab="2" xr2:uid="{967B083D-65BC-458B-8850-14F308624B6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="101">
   <si>
     <t>BoutonHelp</t>
   </si>
@@ -251,9 +251,6 @@
     <t>NoteEcritepar</t>
   </si>
   <si>
-    <t>ApercuCompte</t>
-  </si>
-  <si>
     <t>BarrePeople</t>
   </si>
   <si>
@@ -348,13 +345,16 @@
   </si>
   <si>
     <t>BoutonMembre</t>
+  </si>
+  <si>
+    <t>DialogueNotif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +372,11 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,10 +399,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAF0401-81C4-4C7F-B0D5-CD38D2F7CBEE}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +884,7 @@
         <v>33</v>
       </c>
       <c r="C19" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -897,7 +905,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1">
         <v>9</v>
@@ -969,7 +977,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1153,7 +1161,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1169,7 +1177,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
@@ -1177,7 +1185,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -1185,7 +1193,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -1193,7 +1201,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -1201,7 +1209,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -1209,7 +1217,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1217,7 +1225,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1225,7 +1233,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -1233,7 +1241,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -1241,7 +1249,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -1249,7 +1257,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -1257,7 +1265,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -1265,7 +1273,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -1273,7 +1281,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -1281,7 +1289,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -1289,7 +1297,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -1327,7 +1335,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1">
         <v>7</v>
@@ -1336,7 +1344,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1">
         <v>11</v>
@@ -1351,7 +1359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5335FCE-8506-4A72-B809-C1BEFE2CA306}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -1561,7 +1569,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1">
         <v>2</v>
@@ -1569,7 +1577,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
@@ -1579,7 +1587,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1600,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EFB772-53E1-446F-A5D8-05A07B545576}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,7 +1891,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1">
@@ -1901,7 +1909,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1">
@@ -1911,7 +1919,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
@@ -1956,7 +1964,7 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1977,6 +1985,40 @@
         <v>9</v>
       </c>
       <c r="C53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
         <v>2</v>
       </c>
     </row>
@@ -1987,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722CA16F-3E3E-4DC2-9EB6-AE87BC7469D7}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,79 +2043,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -2083,24 +2125,24 @@
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1">
@@ -2119,117 +2161,90 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2243,7 +2258,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,8 +2376,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>79</v>
+      <c r="A16" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -2385,10 +2400,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7A746-81C2-4371-A6F9-8B5930719588}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:C41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,7 +2522,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -2517,24 +2532,24 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1">
@@ -2552,53 +2567,53 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
@@ -2616,43 +2631,43 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C36" s="1">
         <v>5</v>
@@ -2661,15 +2676,15 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
@@ -2679,19 +2694,82 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2701,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7310A333-89B2-4081-937F-8D572437A9A4}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:D63"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,101 +2946,83 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2974,91 +3034,109 @@
         <v>5</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="1"/>
       <c r="C35" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C38" s="1">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="1"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C40" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1">
         <v>6</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="1">
+        <v>6</v>
+      </c>
+    </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C43" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1">
         <v>6</v>
@@ -3066,7 +3144,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
@@ -3076,117 +3154,27 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C49" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C50" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="1">
         <v>3</v>
       </c>
     </row>
@@ -3197,10 +3185,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDB05CB-FDB9-4072-85C6-D7C3BD9EA04E}">
-  <dimension ref="A6:C25"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,163 +3197,163 @@
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+    </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="C6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="C13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="1"/>
       <c r="C20" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1">
         <v>5</v>
       </c>
     </row>
@@ -3390,7 +3378,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1">
         <v>9</v>
@@ -3406,7 +3394,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
         <v>7</v>

--- a/Dépendances-Vue.xlsx
+++ b/Dépendances-Vue.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="107">
   <si>
     <t xml:space="preserve">App</t>
   </si>
@@ -280,9 +280,6 @@
     <t xml:space="preserve">NouveauSponsoring</t>
   </si>
   <si>
-    <t xml:space="preserve">ApercuNotif2</t>
-  </si>
-  <si>
     <t xml:space="preserve">PanelCredits</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t xml:space="preserve">DialogueNotif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApercuNotif</t>
   </si>
   <si>
     <t xml:space="preserve">AcceptationSponsoring</t>
@@ -465,16 +465,16 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A258" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F267" activeCellId="0" sqref="F267"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A251" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E260" activeCellId="0" sqref="E260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="2" width="10.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="2" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1501,7 +1501,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C142" s="1" t="n">
         <v>2</v>
@@ -1509,32 +1509,38 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C145" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C146" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C147" s="1" t="n">
         <v>1</v>
@@ -1542,72 +1548,66 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E150" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C151" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C152" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="153" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C153" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C154" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>89</v>
+      <c r="B155" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="C158" s="1" t="n">
         <v>3</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C159" s="1" t="n">
         <v>2</v>
@@ -1623,152 +1623,158 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="1" t="s">
-        <v>68</v>
+      <c r="A163" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C164" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C164" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C165" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C167" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E167" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C169" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C168" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C170" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="2" t="s">
+      <c r="C170" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C171" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C173" s="2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C174" s="2" t="n">
+      <c r="C175" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>92</v>
+      <c r="B176" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C176" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C177" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C178" s="1" t="n">
-        <v>3</v>
+      <c r="D178" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C182" s="1" t="n">
         <v>4</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="E182" s="2" t="n">
         <v>1</v>
@@ -1776,33 +1782,27 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C186" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E186" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1815,73 +1815,79 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C188" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="189" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C190" s="1" t="n">
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C189" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C191" s="1" t="n">
-        <v>2</v>
+      <c r="D191" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C193" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="194" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C194" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
-        <v>10</v>
+      <c r="B195" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C196" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="1" t="s">
-        <v>40</v>
+      <c r="A197" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C198" s="1" t="n">
         <v>1</v>
@@ -1889,113 +1895,124 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="1" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C201" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C200" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C202" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C202" s="1" t="n">
+      <c r="D202" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E202" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="1" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C204" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="1" t="s">
-        <v>86</v>
+      <c r="A205" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C205" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C206" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="206" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C207" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="1" t="s">
+      <c r="A208" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C208" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C209" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="1" t="s">
-        <v>92</v>
+      <c r="B210" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C210" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C211" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="211" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
-        <v>95</v>
+      <c r="B212" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C212" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D212" s="2" t="s">
+    </row>
+    <row r="213" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C214" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E212" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C213" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E214" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="3" t="s">
-        <v>96</v>
+      <c r="B215" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C215" s="1" t="n">
         <v>5</v>
@@ -2003,65 +2020,66 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C218" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="D218" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="3" t="s">
-        <v>41</v>
+      <c r="B219" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C219" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C222" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="223" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C223" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
-        <v>97</v>
+      <c r="B224" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E224" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2072,43 +2090,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B226" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C226" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C227" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
-        <v>98</v>
+      <c r="B228" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E228" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="1" t="s">
-        <v>37</v>
+      <c r="B229" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,7 +2134,7 @@
     <row r="232" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C233" s="1" t="n">
         <v>6</v>
@@ -2130,15 +2142,15 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C235" s="1" t="n">
         <v>5</v>
@@ -2147,7 +2159,7 @@
     <row r="236" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C237" s="1" t="n">
         <v>6</v>
@@ -2155,14 +2167,14 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C238" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C239" s="1" t="n">
@@ -2171,123 +2183,135 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="1" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B241" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C241" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="242" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
-        <v>101</v>
+      <c r="B243" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B245" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C245" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="246" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C246" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
-        <v>102</v>
+      <c r="B247" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C250" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C251" s="1" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C250" s="1" t="n">
+      <c r="C252" s="1" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="251" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C252" s="1" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C254" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="255" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C256" s="1" t="n">
-        <v>6</v>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C255" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B257" s="1" t="s">
-        <v>39</v>
+      <c r="A257" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C257" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C258" s="1" t="n">
         <v>1</v>
@@ -2295,624 +2319,556 @@
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="1" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="1" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B263" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C263" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B264" s="1" t="s">
-        <v>43</v>
+      <c r="A264" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C264" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C266" s="1" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
-        <v>14</v>
+      <c r="B267" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E267" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="1" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B270" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C270" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B271" s="1" t="s">
-        <v>45</v>
+      <c r="A271" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C271" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B273" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C273" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
-        <v>16</v>
+      <c r="B274" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E274" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C275" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B276" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C276" s="1" t="n">
+    <row r="276" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" s="1" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C277" s="1" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B279" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C279" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C280" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="1" t="s">
-        <v>15</v>
+      <c r="B281" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E281" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C283" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C285" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B286" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C286" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C288" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B289" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C283" s="1" t="n">
+      <c r="C289" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B284" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C284" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B285" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C285" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="286" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C287" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B288" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C288" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
-        <v>104</v>
+      <c r="B290" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B291" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B292" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C292" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B293" s="1" t="s">
-        <v>99</v>
+      <c r="A293" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="294" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B294" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C294" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="s">
-        <v>105</v>
+      <c r="B295" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B296" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C296" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B297" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C297" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="297" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="s">
-        <v>104</v>
+      <c r="B298" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B299" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C301" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B302" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C302" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="302" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C303" s="1" t="n">
+    <row r="303" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C304" s="1" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B304" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C304" s="1" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B305" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B306" s="1" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B307" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B308" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C308" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B309" s="1" t="s">
-        <v>102</v>
+      <c r="A309" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B310" s="1" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B311" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B312" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="313" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B313" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C313" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1" t="s">
-        <v>19</v>
+      <c r="B314" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B315" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C315" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B316" s="1" t="s">
-        <v>98</v>
+      <c r="A316" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B317" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B318" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="1" t="s">
-        <v>20</v>
+      <c r="B319" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B320" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B321" s="1" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B322" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C322" s="1" t="n">
         <v>5</v>
       </c>
     </row>
+    <row r="322" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B323" s="1" t="s">
-        <v>105</v>
+      <c r="A323" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="325" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C325" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="1" t="s">
-        <v>106</v>
+      <c r="B326" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B329" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C329" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B330" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B331" s="1" t="s">
+      <c r="B331" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C331" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="332" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C333" s="1" t="n">
-        <v>8</v>
+    <row r="332" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B332" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B334" s="1" t="s">
-        <v>104</v>
+      <c r="A334" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B336" s="1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B337" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C337" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B338" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C338" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C340" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="341" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B341" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C341" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="342" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B342" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C342" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C344" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B345" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C345" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B346" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C346" s="1" t="n">
         <v>11</v>
       </c>
     </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Dépendances-Vue.xlsx
+++ b/Dépendances-Vue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B587CCE5-6A8B-4630-9AF2-6C6D3DEDBCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8E4D3B-1DDF-4614-8D35-3D530B5C46DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="510" windowWidth="18660" windowHeight="14910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="108">
   <si>
     <t>App</t>
   </si>
@@ -718,15 +718,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ335"/>
+  <dimension ref="A1:AMJ336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="1024" width="10.7109375" style="2"/>
@@ -916,23 +916,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -946,23 +940,29 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1026,23 +1026,23 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1074,15 +1074,21 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1090,157 +1096,169 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1248,7 +1266,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -1256,7 +1274,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -1264,7 +1282,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -1272,7 +1290,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -1280,7 +1298,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -1288,7 +1306,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -1296,7 +1314,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -1304,31 +1322,37 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C75" s="2">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76" s="2">
         <v>1</v>
@@ -1336,291 +1360,291 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="1">
-        <v>2</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="3" t="s">
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="1">
-        <v>2</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="C84" s="1">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C84" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="1">
-        <v>2</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E86" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="1" t="s">
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C90" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C92" s="1">
-        <v>2</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="1" t="s">
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C93" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C95" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C99" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C100" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C102" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C105" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="107" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+    <row r="108" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C108" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C109" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C111" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="C112" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C113" s="1">
-        <v>2</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="C114" s="1">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C115" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="C117" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="3" t="s">
+      <c r="C119" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C119" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C121" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C122" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C123" s="1">
         <v>1</v>
@@ -1628,86 +1652,92 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C127" s="1">
-        <v>3</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="C128" s="1">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E127" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="1" t="s">
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C128" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C130" s="1">
-        <v>3</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="C131" s="1">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C131" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="C132" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C133" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C134" s="1">
+        <v>3</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E134" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C135" s="1">
         <v>1</v>
@@ -1715,168 +1745,168 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="C136" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C137" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C138" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="C139" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C140" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C141" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="C142" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B143" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="C144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C145" s="1">
-        <v>3</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="C146" s="1">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E145" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C146" s="1">
+      <c r="E146" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C147" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C148" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C150" s="1">
-        <v>3</v>
-      </c>
-      <c r="D150" s="2" t="s">
+      <c r="C151" s="1">
+        <v>3</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E150" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B151" s="1" t="s">
+      <c r="E151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C151" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="C152" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C153" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="C154" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B155" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C155" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C155" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="C156" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C157" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C158" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C159" s="1">
         <v>2</v>
@@ -1884,236 +1914,254 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B160" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B161" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C160" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="C161" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C162" s="1">
-        <v>3</v>
-      </c>
-      <c r="D162" s="2" t="s">
+      <c r="C163" s="1">
+        <v>3</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E162" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B163" s="1" t="s">
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C163" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="C164" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C165" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="2" t="s">
+      <c r="C166" s="1">
+        <v>3</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C166" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="C167" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C168" s="2">
-        <v>3</v>
-      </c>
-      <c r="D168" s="2" t="s">
+      <c r="C169" s="2">
+        <v>3</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E168" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B169" s="1" t="s">
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C169" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="C170" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C171" s="1">
+      <c r="C172" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C172" s="1">
+      <c r="D172" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E172" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B173" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C173" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C174" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C175" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B176" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C175" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="C176" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C177" s="1">
+      <c r="C178" s="1">
         <v>4</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E177" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B178" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C178" s="1">
-        <v>3</v>
+      <c r="E178" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B179" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C179" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C179" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="C180" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C181" s="1">
+      <c r="C182" s="1">
         <v>4</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D182" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E181" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B182" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C182" s="1">
-        <v>2</v>
+      <c r="E182" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B183" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C183" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B184" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C183" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="C184" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C185" s="1">
+      <c r="C186" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C186" s="1">
-        <v>2</v>
+      <c r="D186" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C187" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C188" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C188" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="C189" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C190" s="1">
+      <c r="C191" s="1">
         <v>4</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D191" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E190" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C191" s="1">
+      <c r="E191" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C192" s="1">
         <v>1</v>
@@ -2121,7 +2169,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
@@ -2129,32 +2177,38 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B195" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C194" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="C195" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C196" s="1">
+      <c r="C197" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B197" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C197" s="1">
+      <c r="D197" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B198" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C198" s="1">
         <v>1</v>
@@ -2162,343 +2216,343 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C200" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+    <row r="201" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C202" s="1">
         <v>5</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D202" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E201" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="1" t="s">
+      <c r="E202" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C203" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+    <row r="204" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C204" s="1">
+      <c r="C205" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="1" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B206" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C205" s="1">
+      <c r="C206" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C207" s="1">
+      <c r="C208" s="1">
         <v>6</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D208" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E207" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C208" s="1">
+      <c r="E208" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C209" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B210" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C210" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C211" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B212" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C211" s="1">
+      <c r="C212" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+    <row r="213" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C214" s="1">
         <v>6</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D214" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E213" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C214" s="1">
-        <v>5</v>
+      <c r="E214" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C215" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B216" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C215" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="C216" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C217" s="1">
+      <c r="C218" s="1">
         <v>6</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E217" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C218" s="1">
+      <c r="E218" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C219" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C220" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C220" s="1">
+      <c r="C221" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+    <row r="222" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C223" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B223" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C223" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C224" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C225" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+    <row r="226" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C227" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="1" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C227" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="3" t="s">
+      <c r="C228" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C228" s="1">
+      <c r="C229" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C229" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C230" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C230" s="1">
+      <c r="C231" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+    <row r="232" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C233" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C233" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C234" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C235" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C237" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C237" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C238" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C239" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C240" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C241" s="1">
+      <c r="C242" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B242" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C242" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C243" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C243" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="C244" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C245" s="1">
+      <c r="C246" s="1">
         <v>6</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E245" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B246" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C246" s="1">
+      <c r="E246" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C247" s="1">
         <v>1</v>
@@ -2506,156 +2560,156 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C248" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C249" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C250" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C251" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C252" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C253" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C254" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B255" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C254" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="C255" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C256" s="1">
+      <c r="C257" s="1">
         <v>7</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D257" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E256" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C257" s="1">
+      <c r="E257" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C258" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C259" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C260" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C261" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B262" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C261" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="C262" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C263" s="1">
+      <c r="C264" s="1">
         <v>7</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D264" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E263" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B264" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C264" s="1">
-        <v>2</v>
+      <c r="E264" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C265" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C266" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C267" s="1">
         <v>3</v>
@@ -2663,203 +2717,203 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C268" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C268" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="C269" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C270" s="1">
+      <c r="C271" s="1">
         <v>7</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D271" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E270" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B271" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C271" s="1">
-        <v>6</v>
+      <c r="E271" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C272" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C273" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C274" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C274" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+      <c r="C275" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C276" s="1">
+      <c r="C277" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B277" s="1" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C277" s="1">
+      <c r="C278" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+    <row r="279" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C279" s="1">
+      <c r="C280" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B280" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C280" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B281" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C281" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C282" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C283" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+    <row r="284" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C284" s="1">
+      <c r="C285" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B285" s="1" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C285" s="1">
+      <c r="C286" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+    <row r="287" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C287" s="1">
+      <c r="C288" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B288" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C288" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="C289" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C290" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B291" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C290" s="1">
+      <c r="C291" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+    <row r="292" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C292" s="1">
+      <c r="C293" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B293" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C293" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C294" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C295" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C296" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B297" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C297" s="1">
         <v>6</v>
@@ -2867,7 +2921,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C298" s="1">
         <v>6</v>
@@ -2875,80 +2929,80 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C299" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C300" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C301" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B302" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C301" s="1">
+      <c r="C302" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="302" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+    <row r="303" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C303" s="1">
+      <c r="C304" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B304" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C304" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C305" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C306" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B307" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C306" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="C307" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C308" s="1">
+      <c r="C309" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B309" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C309" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C310" s="1">
         <v>1</v>
@@ -2956,56 +3010,56 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C311" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C312" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C313" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C313" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="C314" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C315" s="1">
+      <c r="C316" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B316" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C316" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C317" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B318" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C318" s="1">
         <v>1</v>
@@ -3013,48 +3067,48 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B319" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C319" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B320" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C319" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C320" s="1">
+      <c r="C321" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+    <row r="322" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C323" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B323" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C323" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B324" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C324" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B325" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C325" s="1">
         <v>1</v>
@@ -3062,65 +3116,73 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B326" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C326" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B327" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C326" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="1" t="s">
+      <c r="C327" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C327" s="1">
+      <c r="C328" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
+    <row r="330" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C329" s="1">
+      <c r="C330" s="1">
         <v>9</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C330" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C331" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C331" s="1">
+      <c r="C332" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C333" s="1">
+      <c r="C334" s="1">
         <v>10</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B334" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C334" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B335" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C335" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B336" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C335" s="1">
+      <c r="C336" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Dépendances-Vue.xlsx
+++ b/Dépendances-Vue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8E4D3B-1DDF-4614-8D35-3D530B5C46DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251F4AA6-7C5B-4BE3-8C25-E74CE4574653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="510" windowWidth="18660" windowHeight="14910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="108">
   <si>
     <t>App</t>
   </si>
@@ -718,16 +718,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ336"/>
+  <dimension ref="A1:AMJ330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F289" sqref="F289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="1024" width="10.7109375" style="2"/>
   </cols>
@@ -899,6 +899,12 @@
       <c r="C21" s="1">
         <v>8</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -915,6 +921,12 @@
       <c r="C23" s="1">
         <v>10</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
@@ -924,6 +936,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
@@ -1159,6 +1179,12 @@
       <c r="C51" s="1">
         <v>1</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1167,6 +1193,12 @@
       <c r="C52" s="1">
         <v>1</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1336,31 +1368,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C75" s="2">
-        <v>2</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="C76" s="2">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="2">
+      <c r="E76" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -1368,384 +1406,391 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="3" t="s">
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C84" s="1">
-        <v>2</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C85" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" s="1">
-        <v>2</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C109" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="2">
-        <v>2</v>
+      <c r="E112" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C114" s="1">
-        <v>2</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C116" s="2">
-        <v>3</v>
-      </c>
-    </row>
+      <c r="C114" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
+      <c r="A117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C117" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C119" s="1">
-        <v>3</v>
-      </c>
-    </row>
+      <c r="C118" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="3" t="s">
-        <v>68</v>
+      <c r="A120" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C120" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>7</v>
+      <c r="B122" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C122" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B123" s="1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C125" s="1">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="125" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
-        <v>2</v>
+      <c r="A126" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C128" s="1">
-        <v>3</v>
-      </c>
-      <c r="D128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E128" s="2">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="1" t="s">
-        <v>75</v>
+      <c r="A129" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C129" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C131" s="1">
-        <v>3</v>
-      </c>
-      <c r="D131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E131" s="2">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="1" t="s">
-        <v>74</v>
+      <c r="A132" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C132" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>85</v>
+      <c r="B134" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C134" s="1">
-        <v>3</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E134" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -1753,684 +1798,677 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="C137" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C138" s="1">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="138" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="1" t="s">
-        <v>43</v>
+      <c r="A139" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C139" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>86</v>
+      <c r="B141" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C141" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B142" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C142" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C143" s="1">
-        <v>1</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
-        <v>49</v>
+      <c r="A144" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C144" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E144" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>87</v>
+      <c r="B146" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C146" s="1">
-        <v>3</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E146" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C147" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
+    <row r="148" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C149" s="1">
+        <v>3</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C150" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B153" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B157" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C148" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C149" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C151" s="1">
-        <v>3</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E151" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B152" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C152" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C154" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B155" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C155" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C156" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C158" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B159" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="1">
+        <v>3</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B162" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C159" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="1" t="s">
+      <c r="C162" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C164" s="1">
+        <v>3</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C160" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C161" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C163" s="1">
-        <v>3</v>
-      </c>
-      <c r="D163" s="2" t="s">
+      <c r="C165" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C167" s="2">
+        <v>3</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B168" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C168" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C170" s="1">
+        <v>4</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E163" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
+      <c r="E170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C171" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C164" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C166" s="1">
-        <v>3</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E166" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C167" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C169" s="2">
-        <v>3</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="C172" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C175" s="1">
+        <v>4</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E169" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B170" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C170" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C172" s="1">
-        <v>4</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E172" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C173" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C174" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C175" s="1">
-        <v>2</v>
+      <c r="E175" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C176" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C178" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C177" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C179" s="1">
         <v>4</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E178" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C179" s="1">
-        <v>3</v>
+      <c r="D179" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E179" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C180" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C182" s="1">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C181" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="1">
         <v>4</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E182" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C183" s="1">
-        <v>2</v>
+      <c r="D183" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C184" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C185" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
-        <v>9</v>
+      <c r="B186" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C186" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="1">
         <v>4</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E186" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C187" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C188" s="1">
-        <v>3</v>
+      <c r="E188" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C189" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>10</v>
+      <c r="B191" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C191" s="1">
-        <v>4</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E191" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C192" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C193" s="1">
-        <v>1</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="1" t="s">
-        <v>38</v>
+      <c r="A194" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C194" s="1">
+        <v>5</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C195" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C197" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C196" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C198" s="1">
         <v>5</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E197" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C198" s="1">
+      <c r="D198" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E198" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C199" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B200" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C200" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C201" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
-        <v>95</v>
+      <c r="B202" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C202" s="1">
-        <v>5</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E202" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B203" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C203" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" s="1">
+        <v>6</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>96</v>
+      <c r="B205" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C205" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B206" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C206" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C208" s="1">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C209" s="1">
         <v>6</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E208" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B209" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C209" s="1">
+      <c r="D209" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E209" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B210" s="3" t="s">
-        <v>74</v>
+      <c r="B210" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C210" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B211" s="1" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C211" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C212" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C213" s="1">
+        <v>6</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E213" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
-        <v>97</v>
+      <c r="B214" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C214" s="1">
-        <v>6</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E214" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B215" s="1" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C215" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C216" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C218" s="1">
         <v>6</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E218" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="C219" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B220" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C220" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C222" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C220" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B221" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C221" s="1">
+      <c r="C223" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C224" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C223" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B224" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C224" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B225" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C225" s="1">
+      <c r="C226" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C227" s="1">
+    <row r="227" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C228" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C228" s="1">
-        <v>2</v>
-      </c>
-    </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="3" t="s">
-        <v>96</v>
+      <c r="B229" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C229" s="1">
         <v>5</v>
@@ -2438,32 +2476,32 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B230" s="1" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C230" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C231" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C232" s="1">
+        <v>6</v>
+      </c>
+    </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
-        <v>101</v>
+      <c r="B233" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C233" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C234" s="1">
         <v>5</v>
@@ -2471,7 +2509,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C235" s="1">
         <v>5</v>
@@ -2480,7 +2518,7 @@
     <row r="236" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C237" s="1">
         <v>6</v>
@@ -2488,119 +2526,124 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C238" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C239" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C240" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C241" s="1">
+        <v>6</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>103</v>
+      <c r="B242" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C242" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B243" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C243" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B244" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C244" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>18</v>
+      <c r="B246" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C246" s="1">
-        <v>6</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E246" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C247" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C248" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C249" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C250" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B251" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C251" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B252" s="1" t="s">
-        <v>95</v>
+      <c r="A252" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C252" s="1">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C253" s="1">
         <v>2</v>
@@ -2608,45 +2651,46 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B254" s="1" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C254" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="C255" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C257" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C256" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C258" s="1">
         <v>7</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D258" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E257" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B258" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C258" s="1">
+      <c r="E258" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C259" s="1">
         <v>2</v>
@@ -2654,7 +2698,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B260" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C260" s="1">
         <v>6</v>
@@ -2662,41 +2706,41 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="C261" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C262" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C264" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B263" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C263" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C265" s="1">
         <v>7</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D265" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E264" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B265" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C265" s="1">
-        <v>2</v>
+      <c r="E265" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -2709,15 +2753,15 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C267" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C268" s="1">
         <v>3</v>
@@ -2725,146 +2769,146 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C269" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C271" s="1">
-        <v>7</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E271" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C272" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B273" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C274" s="1">
+        <v>7</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E274" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B275" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C273" s="1">
+      <c r="C275" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B274" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C274" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B275" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C275" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>12</v>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B276" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C276" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C277" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B278" s="1" t="s">
+    <row r="278" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C279" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C280" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C282" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C278" s="1">
+      <c r="C283" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C280" s="1">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B284" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C284" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C285" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B281" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C281" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B282" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C282" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B283" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C283" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C285" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B286" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C286" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
-        <v>104</v>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C288" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C289" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C290" s="1">
         <v>2</v>
@@ -2872,317 +2916,282 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C291" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B292" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C292" s="1">
+        <v>6</v>
+      </c>
+    </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
-        <v>17</v>
+      <c r="B293" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C293" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C294" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C295" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C296" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B297" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C297" s="1">
         <v>6</v>
       </c>
     </row>
+    <row r="297" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B298" s="1" t="s">
-        <v>101</v>
+      <c r="A298" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C298" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C299" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C300" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C301" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C303" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B304" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C304" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B305" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C305" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B306" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C306" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B302" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C302" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C304" s="1">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B307" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C307" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B305" s="1" t="s">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C308" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C310" s="1">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E310" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C311" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B312" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C312" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B313" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C313" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C314" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C305" s="1">
+      <c r="C315" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B306" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C306" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B307" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C307" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C309" s="1">
+    <row r="316" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C317" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B310" s="1" t="s">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B318" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C318" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B319" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C319" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B320" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C310" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B311" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C311" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B312" s="1" t="s">
+      <c r="C320" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B321" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C321" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C312" s="1">
+      <c r="C322" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B313" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C313" s="1">
+    <row r="324" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C324" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C325" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C326" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B314" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C314" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C328" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B329" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C329" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B330" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C316" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B317" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C317" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B318" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C318" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B319" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C319" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B320" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C320" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C321" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C323" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B324" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C324" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B325" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C325" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B326" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C326" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B327" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C327" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C328" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C330" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C331" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C332" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C334" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B335" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C335" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B336" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C336" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Dépendances-Vue.xlsx
+++ b/Dépendances-Vue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251F4AA6-7C5B-4BE3-8C25-E74CE4574653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C534A9-1BAA-47AA-8097-E4A8FC3817E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="510" windowWidth="18660" windowHeight="14910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="108">
   <si>
     <t>App</t>
   </si>
@@ -33,9 +33,6 @@
     <t>DialogueErreur</t>
   </si>
   <si>
-    <t>PageMenu</t>
-  </si>
-  <si>
     <t>PageSession</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>MotsCles</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>EditeurMd</t>
   </si>
   <si>
@@ -349,13 +343,19 @@
   </si>
   <si>
     <t>QuotasVols</t>
+  </si>
+  <si>
+    <t>Tous les filtres</t>
+  </si>
+  <si>
+    <t>MenuAccueil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -375,6 +375,12 @@
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -397,13 +403,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ330"/>
+  <dimension ref="A1:AMJ323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F289" sqref="F289"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +739,7 @@
     <col min="4" max="1024" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,197 +747,243 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>7</v>
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>18</v>
+      <c r="B19" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="C19" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>19</v>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1">
-        <v>8</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
         <v>3</v>
@@ -938,83 +991,64 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>29</v>
+      <c r="A32" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="1">
         <v>1</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
+      <c r="A33" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>31</v>
+      <c r="A34" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1022,7 +1056,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1030,7 +1064,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1038,7 +1072,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1046,23 +1080,21 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="D38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>37</v>
+      <c r="A40" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1070,7 +1102,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -1078,7 +1110,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1086,7 +1118,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1094,21 +1126,15 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1116,181 +1142,143 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>56</v>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1298,7 +1286,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -1306,39 +1294,63 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C67" s="1">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -1346,396 +1358,426 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="2">
-        <v>2</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="1">
-        <v>2</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="1">
-        <v>2</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C88" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C91" s="1">
-        <v>2</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C92" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C94" s="1">
-        <v>2</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B96" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C98" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C101" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C104" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C107" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C112" s="1">
-        <v>2</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C114" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C115" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>79</v>
+      </c>
+      <c r="C114" s="1">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C116" s="2">
+        <v>3</v>
+      </c>
+    </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="1">
-        <v>3</v>
+      <c r="B117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="3" t="s">
-        <v>68</v>
+      <c r="B118" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C118" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" s="1">
         <v>3</v>
       </c>
+      <c r="D120" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="1" t="s">
-        <v>26</v>
+      <c r="B121" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C121" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C122" s="1">
-        <v>1</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="1" t="s">
-        <v>70</v>
+      <c r="A123" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C123" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C124" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>82</v>
+      <c r="B126" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C126" s="1">
-        <v>3</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E126" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C127" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C129" s="1">
         <v>3</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E129" s="2">
         <v>1</v>
@@ -1743,7 +1785,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B130" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C130" s="1">
         <v>2</v>
@@ -1752,13 +1794,13 @@
     <row r="131" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C132" s="1">
         <v>3</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E132" s="2">
         <v>1</v>
@@ -1766,31 +1808,30 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B134" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C134" s="1">
-        <v>1</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="1" t="s">
-        <v>74</v>
+      <c r="A135" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C135" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B136" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -1798,469 +1839,470 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C137" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>86</v>
+      <c r="B139" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C139" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="C140" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C141" s="1">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="141" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B142" s="1" t="s">
-        <v>49</v>
+      <c r="A142" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>87</v>
+      <c r="B144" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C144" s="1">
-        <v>3</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E144" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C146" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="1" t="s">
-        <v>50</v>
+    <row r="146" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C147" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>88</v>
+      <c r="B149" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C149" s="1">
-        <v>3</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E149" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C150" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C152" s="1">
         <v>3</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E152" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C153" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C154" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>8</v>
+      <c r="B156" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C156" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C157" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B158" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C158" s="1">
-        <v>2</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="1" t="s">
-        <v>51</v>
+      <c r="A159" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C159" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C160" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>5</v>
+      <c r="B161" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C161" s="1">
-        <v>3</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E161" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C162" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>90</v>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C164" s="1">
         <v>3</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E164" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="2" t="s">
-        <v>74</v>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C165" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C167" s="2">
+    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C167" s="1">
         <v>3</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E167" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B168" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C168" s="2">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C170" s="1">
+        <v>89</v>
+      </c>
+      <c r="C170" s="2">
+        <v>3</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E170" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C171" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C173" s="1">
         <v>4</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E170" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C171" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C172" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B173" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C173" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D173" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C174" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>93</v>
+      <c r="B175" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C175" s="1">
-        <v>4</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E175" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C176" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C177" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C178" s="1">
+        <v>4</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>94</v>
+      <c r="B179" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C179" s="1">
-        <v>4</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E179" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C180" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C181" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C182" s="1">
+        <v>4</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E182" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>9</v>
+      <c r="B183" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C183" s="1">
-        <v>4</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E183" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C184" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="1">
+        <v>4</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C184" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C185" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B186" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C186" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E186" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B187" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C187" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
-        <v>10</v>
+      <c r="B188" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C188" s="1">
-        <v>4</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E188" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C189" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C190" s="1">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="190" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B191" s="1" t="s">
-        <v>38</v>
+      <c r="A191" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C191" s="1">
+        <v>4</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E191" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B192" s="1" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="C192" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B193" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>11</v>
+      <c r="B194" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C194" s="1">
-        <v>5</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E194" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C195" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C196" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="1">
+        <v>5</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E197" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>95</v>
+      <c r="B198" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C198" s="1">
-        <v>5</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E198" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C199" s="1">
         <v>4</v>
@@ -2268,315 +2310,320 @@
     </row>
     <row r="200" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
-        <v>96</v>
+      <c r="A201" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C201" s="1">
         <v>5</v>
       </c>
+      <c r="D201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E201" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B202" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C202" s="1">
         <v>4</v>
       </c>
     </row>
+    <row r="203" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
-        <v>13</v>
+      <c r="A204" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C204" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C205" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="1">
         <v>6</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E204" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C205" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B206" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C206" s="1">
+      <c r="D207" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E207" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C208" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B209" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C209" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C207" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C209" s="1">
-        <v>6</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E209" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B210" s="1" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C210" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B211" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C211" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C212" s="1">
+        <v>6</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E212" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
-        <v>98</v>
+      <c r="B213" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C213" s="1">
-        <v>6</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E213" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B214" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C214" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B215" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C215" s="1">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="215" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B216" s="1" t="s">
-        <v>95</v>
+      <c r="A216" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C216" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>6</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E216" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>99</v>
+      <c r="B218" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C218" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B219" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C219" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B220" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C220" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C221" s="1">
+        <v>6</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
-        <v>100</v>
+      <c r="B222" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C222" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B223" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C223" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B224" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C224" s="1">
         <v>5</v>
       </c>
     </row>
+    <row r="224" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="1" t="s">
-        <v>50</v>
+      <c r="A225" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C225" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B226" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C226" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C227" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
-        <v>101</v>
+      <c r="B228" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C228" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B229" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C229" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C230" s="1">
+    <row r="230" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C231" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C232" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C232" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B233" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C233" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C234" s="1">
         <v>5</v>
       </c>
     </row>
+    <row r="234" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="1" t="s">
-        <v>95</v>
+      <c r="A235" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="C235" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C236" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C237" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C237" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B238" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C238" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C239" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C240" s="1">
+        <v>6</v>
+      </c>
+    </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>18</v>
+      <c r="B241" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C241" s="1">
-        <v>6</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E241" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B242" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C242" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B243" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C243" s="1">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="243" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B244" s="1" t="s">
-        <v>91</v>
+      <c r="A244" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C244" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E244" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,219 +2636,226 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="C246" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C247" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C248" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C249" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C250" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B251" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C251" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
-        <v>14</v>
+      <c r="B252" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C252" s="1">
-        <v>7</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E252" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B253" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C253" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B254" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C254" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B255" s="1" t="s">
-        <v>45</v>
+      <c r="A255" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C255" s="1">
+        <v>7</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E255" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C256" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B257" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C257" s="1">
+        <v>6</v>
+      </c>
+    </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>16</v>
+      <c r="B258" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C258" s="1">
-        <v>7</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E258" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B259" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C259" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B260" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C260" s="1">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="260" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B261" s="1" t="s">
-        <v>91</v>
+      <c r="A261" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C261" s="1">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E261" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C262" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C263" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B264" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C264" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>15</v>
+      <c r="B265" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C265" s="1">
-        <v>7</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E265" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C266" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B267" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C267" s="1">
-        <v>5</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B268" s="1" t="s">
-        <v>87</v>
+      <c r="A268" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C268" s="1">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E268" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C269" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B270" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C270" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>12</v>
+      <c r="B271" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C271" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C272" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="C274" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E274" s="2">
         <v>1</v>
@@ -2809,40 +2863,46 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B275" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C275" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B276" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C276" s="1">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="276" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B277" s="1" t="s">
-        <v>99</v>
+      <c r="A277" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="C277" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>7</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E277" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C278" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>105</v>
+      <c r="B279" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C279" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B280" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C280" s="1">
         <v>6</v>
@@ -2851,15 +2911,21 @@
     <row r="281" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C282" s="1">
         <v>7</v>
       </c>
+      <c r="D282" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E282" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C283" s="1">
         <v>5</v>
@@ -2867,7 +2933,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C284" s="1">
         <v>2</v>
@@ -2875,7 +2941,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C285" s="1">
         <v>6</v>
@@ -2884,7 +2950,7 @@
     <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C287" s="1">
         <v>7</v>
@@ -2892,120 +2958,132 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C288" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C289" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C290" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C291" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C292" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C293" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C294" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C295" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B296" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C296" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="297" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C298" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D298" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E298" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C299" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C300" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C301" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C303" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D303" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E303" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C304" s="1">
         <v>1</v>
@@ -3013,7 +3091,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C305" s="1">
         <v>1</v>
@@ -3021,7 +3099,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C306" s="1">
         <v>5</v>
@@ -3029,7 +3107,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C307" s="1">
         <v>7</v>
@@ -3037,7 +3115,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B308" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C308" s="1">
         <v>3</v>
@@ -3046,13 +3124,13 @@
     <row r="309" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C310" s="1">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E310" s="2">
         <v>1</v>
@@ -3060,7 +3138,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C311" s="1">
         <v>7</v>
@@ -3068,7 +3146,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C312" s="1">
         <v>1</v>
@@ -3076,7 +3154,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C313" s="1">
         <v>1</v>
@@ -3084,7 +3162,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C314" s="1">
         <v>2</v>
@@ -3092,106 +3170,70 @@
     </row>
     <row r="315" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C315" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="316" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
-        <v>106</v>
+    <row r="317" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C317" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B318" s="1" t="s">
+      <c r="D317" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E317" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C318" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C319" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C321" s="1">
+        <v>10</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E321" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B322" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C322" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B323" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C318" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B319" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C319" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B320" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C320" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B321" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C321" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C322" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C324" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C325" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C326" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C328" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B329" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C329" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B330" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C330" s="1">
+      <c r="C323" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Dépendances-Vue.xlsx
+++ b/Dépendances-Vue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C534A9-1BAA-47AA-8097-E4A8FC3817E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D93167-DC82-4683-8A94-7BE1F4AF0F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9885" yWindow="510" windowWidth="18660" windowHeight="14910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="108">
   <si>
     <t>App</t>
   </si>
@@ -725,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ323"/>
+  <dimension ref="A1:AMJ322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,6 +871,9 @@
       <c r="D11" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -882,6 +885,9 @@
       <c r="D12" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
@@ -1430,45 +1436,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C79" s="1">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2" t="s">
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E79" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C81" s="2">
-        <v>2</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C82" s="2">
+        <v>2</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="2">
+      <c r="E82" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" s="2">
         <v>1</v>
@@ -1476,277 +1488,289 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="1">
-        <v>2</v>
-      </c>
-      <c r="D87" s="2" t="s">
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E87" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="3" t="s">
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C88" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C90" s="1">
-        <v>2</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="C91" s="1">
+        <v>2</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E90" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C91" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="1">
-        <v>2</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="1" t="s">
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C96" s="1">
-        <v>2</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="C97" s="1">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="1" t="s">
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C97" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C100" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1">
+        <v>2</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C104" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C106" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="C107" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C109" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C110" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C114" s="1">
-        <v>2</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C116" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C117" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C118" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C120" s="1">
-        <v>3</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="C121" s="1">
+        <v>3</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="3" t="s">
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C121" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="C122" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C123" s="1">
-        <v>3</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="C124" s="1">
+        <v>3</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E123" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B124" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="1">
+      <c r="E124" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C125" s="1">
         <v>1</v>
@@ -1754,92 +1778,92 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B126" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C126" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B127" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C129" s="1">
-        <v>3</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E129" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="1" t="s">
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C130" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C132" s="1">
-        <v>3</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="C133" s="1">
+        <v>3</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E132" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B133" s="1" t="s">
+      <c r="E133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C133" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="C134" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C135" s="1">
-        <v>3</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="C136" s="1">
+        <v>3</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E135" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B136" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C136" s="1">
+      <c r="E136" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B137" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C137" s="1">
         <v>1</v>
@@ -1847,168 +1871,174 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C138" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B139" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C139" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C140" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="C141" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C142" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B143" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C143" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C144" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C147" s="1">
-        <v>3</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="C148" s="1">
+        <v>3</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E147" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B148" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C148" s="1">
+      <c r="E148" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B149" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C149" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C150" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="C151" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C152" s="1">
-        <v>3</v>
-      </c>
-      <c r="D152" s="2" t="s">
+      <c r="C153" s="1">
+        <v>3</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E152" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B153" s="1" t="s">
+      <c r="E153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B154" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C153" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="C154" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C155" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B156" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C156" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C157" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="C158" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C159" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B160" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C160" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B161" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C161" s="1">
         <v>2</v>
@@ -2016,246 +2046,246 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B163" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C162" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="C163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C164" s="1">
-        <v>3</v>
-      </c>
-      <c r="D164" s="2" t="s">
+      <c r="C165" s="1">
+        <v>3</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E164" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B165" s="1" t="s">
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C165" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="C166" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C167" s="1">
-        <v>3</v>
-      </c>
-      <c r="D167" s="2" t="s">
+      <c r="C168" s="1">
+        <v>3</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E167" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="2" t="s">
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C168" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="C169" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C170" s="2">
-        <v>3</v>
-      </c>
-      <c r="D170" s="2" t="s">
+      <c r="C171" s="2">
+        <v>3</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E170" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
+      <c r="E171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C171" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="C172" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C173" s="1">
+      <c r="C174" s="1">
         <v>4</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E173" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B174" s="3" t="s">
+      <c r="E174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C174" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C175" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B177" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C176" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="C177" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C178" s="1">
+      <c r="C179" s="1">
         <v>4</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E178" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C179" s="1">
-        <v>3</v>
+      <c r="E179" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B180" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C180" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C180" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="C181" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C182" s="1">
+      <c r="C183" s="1">
         <v>4</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E182" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B183" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C183" s="1">
-        <v>2</v>
+      <c r="E183" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B184" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C184" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="C185" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C186" s="1">
+      <c r="C187" s="1">
         <v>4</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E186" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B187" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C187" s="1">
-        <v>2</v>
+      <c r="E187" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B188" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C188" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B189" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C189" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C189" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="C190" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C192" s="1">
         <v>4</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D192" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E191" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C192" s="1">
+      <c r="E192" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B193" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C193" s="1">
         <v>1</v>
@@ -2263,7 +2293,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B194" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C194" s="1">
         <v>1</v>
@@ -2271,364 +2301,364 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C195" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B196" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C195" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="C196" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C198" s="1">
         <v>5</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D198" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E197" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B198" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C198" s="1">
+      <c r="E198" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C199" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C199" s="1">
+      <c r="C200" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+    <row r="201" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C201" s="1">
+      <c r="C202" s="1">
         <v>5</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D202" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E201" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B202" s="1" t="s">
+      <c r="E202" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B203" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C202" s="1">
+      <c r="C203" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C204" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B205" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C205" s="1">
+    <row r="204" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" s="1">
+        <v>6</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E206" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B207" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C207" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B208" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C207" s="1">
-        <v>6</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E207" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B208" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C208" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C209" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B210" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C210" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C211" s="1">
+        <v>6</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E211" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
-        <v>95</v>
+      <c r="B212" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C212" s="1">
-        <v>6</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E212" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C213" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B214" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C214" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C215" s="1">
+        <v>6</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E215" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>96</v>
+      <c r="B216" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C216" s="1">
-        <v>6</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E216" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B217" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C217" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B218" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C218" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C220" s="1">
+        <v>6</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E220" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B221" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C218" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B219" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C219" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C221" s="1">
-        <v>6</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E221" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B222" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C222" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C224" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C222" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B223" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C223" s="1">
+      <c r="C225" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C226" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C225" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C226" s="1">
-        <v>2</v>
-      </c>
-    </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="3" t="s">
-        <v>94</v>
+      <c r="B227" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C227" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C228" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C230" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C229" s="1">
+      <c r="C231" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C231" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B232" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C232" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C233" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C234" s="1">
+        <v>6</v>
+      </c>
+    </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
-        <v>100</v>
+      <c r="B235" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C235" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B236" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C236" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B237" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C237" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C238" s="1">
+    <row r="238" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C239" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C240" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C240" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B241" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C241" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B242" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C242" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C243" s="1">
+        <v>6</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E243" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>17</v>
+      <c r="B244" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C244" s="1">
-        <v>6</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E244" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B245" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C245" s="1">
         <v>1</v>
@@ -2636,148 +2666,148 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B246" s="1" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C246" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C247" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C248" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C249" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C250" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C251" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="C252" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B253" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C253" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C254" s="1">
+        <v>7</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E254" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
-        <v>13</v>
+      <c r="B255" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C255" s="1">
-        <v>7</v>
-      </c>
-      <c r="D255" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E255" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B256" s="1" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C256" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B257" s="1" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C257" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C258" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B259" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C259" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260" s="1">
+        <v>7</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E260" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>15</v>
+      <c r="B261" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C261" s="1">
-        <v>7</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E261" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B262" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C262" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B263" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C263" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C264" s="1">
         <v>3</v>
@@ -2785,204 +2815,204 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C265" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B266" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C266" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C267" s="1">
+        <v>7</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E267" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>14</v>
+      <c r="B268" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C268" s="1">
-        <v>7</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E268" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B269" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C269" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B270" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C270" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C271" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B272" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C272" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C273" s="1">
+        <v>6</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E273" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>11</v>
+      <c r="B274" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C274" s="1">
-        <v>6</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E274" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B275" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C276" s="1">
+        <v>7</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E276" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B277" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C275" s="1">
+      <c r="C277" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C277" s="1">
-        <v>7</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E277" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B278" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C278" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B279" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C279" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B280" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C280" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="281" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C281" s="1">
+        <v>7</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E281" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>102</v>
+      <c r="B282" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C282" s="1">
-        <v>7</v>
-      </c>
-      <c r="D282" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E282" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B283" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C283" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B284" s="1" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C284" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B285" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C285" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="286" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C286" s="1">
+        <v>7</v>
+      </c>
+    </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
-        <v>16</v>
+      <c r="B287" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C287" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C288" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B289" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C289" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C290" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C291" s="1">
         <v>6</v>
@@ -2990,7 +3020,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C292" s="1">
         <v>6</v>
@@ -2998,92 +3028,92 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C293" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C294" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C295" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297" s="1">
+        <v>7</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E297" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B298" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C298" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B296" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C296" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C298" s="1">
-        <v>7</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E298" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B299" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C299" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B300" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C300" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B301" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C301" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C302" s="1">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E302" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
-        <v>19</v>
+      <c r="B303" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C303" s="1">
-        <v>8</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E303" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B304" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C304" s="1">
         <v>1</v>
@@ -3091,62 +3121,62 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B305" s="1" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C305" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C306" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C307" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C309" s="1">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E309" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B310" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C310" s="1">
         <v>7</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B308" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C308" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C310" s="1">
-        <v>8</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E310" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B311" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C311" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B312" s="1" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="C312" s="1">
         <v>1</v>
@@ -3154,86 +3184,78 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C313" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C314" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C316" s="1">
+        <v>8</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E316" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C315" s="1">
+      <c r="C317" s="1">
         <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="317" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C317" s="1">
-        <v>8</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E317" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C318" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C320" s="1">
+        <v>10</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E320" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B321" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C319" s="1">
+      <c r="C321" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C321" s="1">
-        <v>10</v>
-      </c>
-      <c r="D321" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E321" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C322" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B323" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C323" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Dépendances-Vue.xlsx
+++ b/Dépendances-Vue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D93167-DC82-4683-8A94-7BE1F4AF0F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C6BA64-A1C1-4BD4-9518-8BE99505F602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="510" windowWidth="18660" windowHeight="14910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10485" yWindow="420" windowWidth="16200" windowHeight="14910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="109">
   <si>
     <t>App</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>MenuAccueil</t>
+  </si>
+  <si>
+    <t>NoteNouvelle</t>
   </si>
 </sst>
 </file>
@@ -725,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ322"/>
+  <dimension ref="A1:AMJ325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I109" sqref="I109"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,6 +771,12 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -860,6 +869,12 @@
       <c r="C10" s="1">
         <v>6</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
@@ -896,6 +911,12 @@
       <c r="C13" s="1">
         <v>7</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
@@ -904,6 +925,12 @@
       <c r="C14" s="1">
         <v>7</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
@@ -1417,6 +1444,12 @@
         <v>49</v>
       </c>
       <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1618,6 +1651,12 @@
       <c r="C101" s="1">
         <v>2</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B102" s="1" t="s">
@@ -1657,6 +1696,12 @@
       </c>
       <c r="C107" s="1">
         <v>2</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1668,6 +1713,12 @@
       <c r="C110" s="1">
         <v>2</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
@@ -1683,6 +1734,12 @@
         <v>3</v>
       </c>
       <c r="C113" s="2">
+        <v>2</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E113" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1909,6 +1966,12 @@
       <c r="C143" s="1">
         <v>3</v>
       </c>
+      <c r="D143" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
@@ -2004,6 +2067,12 @@
       <c r="C156" s="1">
         <v>3</v>
       </c>
+      <c r="D156" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
@@ -2439,16 +2508,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C215" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E215" s="2">
         <v>1</v>
@@ -2456,110 +2524,122 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B216" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C216" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C218" s="1">
+        <v>6</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E218" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B219" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C216" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B217" s="1" t="s">
+      <c r="C219" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B220" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C217" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B218" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C218" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C220" s="1">
-        <v>6</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E220" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B221" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C221" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C223" s="1">
+        <v>6</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B224" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C221" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B222" s="1" t="s">
+      <c r="C224" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B225" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C222" s="1">
+      <c r="C225" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+    <row r="226" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C224" s="1">
+      <c r="C227" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="1" t="s">
+      <c r="D227" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E227" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B228" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C225" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="3" t="s">
+      <c r="C228" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B229" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C226" s="1">
+      <c r="C229" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="1" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B230" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C227" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C228" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C230" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
         <v>93</v>
       </c>
@@ -2567,114 +2647,125 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="1" t="s">
+    <row r="232" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C233" s="1">
+        <v>6</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E233" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B234" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C234" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C232" s="1">
+      <c r="C235" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+    <row r="236" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C234" s="1">
+      <c r="C237" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="1" t="s">
+      <c r="D237" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E237" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B238" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C235" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="1" t="s">
+      <c r="C238" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B239" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C236" s="1">
+      <c r="C239" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="1" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B240" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C237" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C239" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C240" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B241" s="1" t="s">
+    <row r="241" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C242" s="1">
+        <v>4</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E242" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B243" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C243" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C241" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="C244" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C243" s="1">
+      <c r="C246" s="1">
         <v>6</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E243" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B244" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C244" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B245" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C245" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B246" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C246" s="1">
-        <v>3</v>
+      <c r="E246" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C247" s="1">
         <v>1</v>
@@ -2682,225 +2773,226 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B248" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C248" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B249" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C249" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C250" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="C251" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C252" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B253" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C253" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
-        <v>13</v>
+      <c r="B254" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C254" s="1">
-        <v>7</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E254" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C255" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B256" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C256" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B257" s="1" t="s">
-        <v>44</v>
+      <c r="A257" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C257" s="1">
+        <v>7</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E257" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C258" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B259" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C259" s="1">
+        <v>6</v>
+      </c>
+    </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>15</v>
+      <c r="B260" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C260" s="1">
-        <v>7</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E260" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C261" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B262" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C262" s="1">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="262" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B263" s="1" t="s">
-        <v>89</v>
+      <c r="A263" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C263" s="1">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E263" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B264" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C264" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="C265" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B266" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C266" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>14</v>
+      <c r="B267" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C267" s="1">
-        <v>7</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E267" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C268" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B269" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C269" s="1">
-        <v>5</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B270" s="1" t="s">
-        <v>85</v>
+      <c r="A270" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C270" s="1">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E270" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C271" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B272" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C272" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>11</v>
+      <c r="B273" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C273" s="1">
-        <v>6</v>
-      </c>
-      <c r="D273" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E273" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B274" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C274" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="C276" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E276" s="2">
         <v>1</v>
@@ -2914,348 +3006,383 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B278" s="1" t="s">
+    <row r="278" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C279" s="1">
+        <v>7</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E279" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C280" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B281" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C278" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B279" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C279" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C281" s="1">
-        <v>7</v>
-      </c>
-      <c r="D281" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E281" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C282" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C284" s="1">
+        <v>7</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E284" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B285" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C282" s="1">
+      <c r="C285" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B283" s="1" t="s">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B286" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C283" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B284" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C284" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C286" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B287" s="1" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="C287" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B288" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C288" s="1">
-        <v>3</v>
-      </c>
-    </row>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B289" s="1" t="s">
-        <v>77</v>
+      <c r="A289" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C289" s="1">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E289" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="C290" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C291" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="C292" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B293" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C293" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B294" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C294" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C295" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="296" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B296" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C296" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
-        <v>18</v>
+      <c r="B297" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="C297" s="1">
-        <v>7</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E297" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C298" s="1">
+        <v>6</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E298" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C300" s="1">
+        <v>7</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E300" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B301" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C298" s="1">
+      <c r="C301" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B299" s="1" t="s">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B302" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C299" s="1">
+      <c r="C302" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B300" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C300" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C302" s="1">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E302" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B303" s="1" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C303" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B304" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C304" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B305" s="1" t="s">
-        <v>93</v>
+      <c r="A305" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C305" s="1">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E305" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="C306" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C307" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B308" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C308" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
-        <v>104</v>
+      <c r="B309" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="C309" s="1">
-        <v>8</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E309" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C310" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B311" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C311" s="1">
-        <v>1</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B312" s="1" t="s">
-        <v>37</v>
+      <c r="A312" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C312" s="1">
+        <v>8</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E312" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C313" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B314" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C314" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B315" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C315" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B316" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C313" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C314" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="C316" s="1">
-        <v>8</v>
-      </c>
-      <c r="D316" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E316" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C317" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C318" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
-        <v>21</v>
+    <row r="318" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C319" s="1">
+        <v>8</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E319" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C320" s="1">
-        <v>10</v>
-      </c>
-      <c r="D320" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E320" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B321" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C321" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B322" s="1" t="s">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C323" s="1">
+        <v>10</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E323" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B324" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C324" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B325" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C322" s="1">
+      <c r="C325" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Dépendances-Vue.xlsx
+++ b/Dépendances-Vue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C6BA64-A1C1-4BD4-9518-8BE99505F602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D2399-4F40-4CF0-A978-7255D604DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="420" windowWidth="16200" windowHeight="14910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15000" yWindow="645" windowWidth="13650" windowHeight="14910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="115">
   <si>
     <t>App</t>
   </si>
@@ -96,9 +96,6 @@
     <t>BoutonHelp</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>BoutonLangue</t>
   </si>
   <si>
@@ -352,6 +349,27 @@
   </si>
   <si>
     <t>NoteNouvelle</t>
+  </si>
+  <si>
+    <t>SdRouge</t>
+  </si>
+  <si>
+    <t>SdBlanc</t>
+  </si>
+  <si>
+    <t>SdNoir</t>
+  </si>
+  <si>
+    <t>SdNb</t>
+  </si>
+  <si>
+    <t>BoutonUndo</t>
+  </si>
+  <si>
+    <t>NotifIcon</t>
+  </si>
+  <si>
+    <t>FiltreRac</t>
   </si>
 </sst>
 </file>
@@ -728,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ325"/>
+  <dimension ref="A1:AMJ345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -772,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -786,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -800,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -814,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -828,7 +846,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -842,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -856,7 +874,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -870,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -884,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -898,7 +916,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -912,7 +930,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -926,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -940,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -954,13 +972,13 @@
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
@@ -968,360 +986,517 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="C24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="D40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>36</v>
+      <c r="D61" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1333,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E66" s="2">
         <v>1</v>
@@ -1341,13 +1516,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E67" s="2">
         <v>1</v>
@@ -1355,13 +1530,13 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E68" s="2">
         <v>1</v>
@@ -1369,13 +1544,13 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E69" s="2">
         <v>1</v>
@@ -1383,21 +1558,27 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E71" s="2">
         <v>1</v>
@@ -1405,13 +1586,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E72" s="2">
         <v>1</v>
@@ -1419,13 +1600,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E73" s="2">
         <v>1</v>
@@ -1433,51 +1614,55 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>50</v>
+      <c r="A76" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C77" s="1">
+      <c r="D76" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>94</v>
+      <c r="A78" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C78" s="1">
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E78" s="2">
         <v>1</v>
@@ -1485,128 +1670,140 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="2">
-        <v>2</v>
+        <v>110</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="2">
-        <v>1</v>
-      </c>
-    </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="1" t="s">
-        <v>34</v>
+      <c r="A84" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C84" s="2">
+        <v>2</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
-        <v>36</v>
+      <c r="B86" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" s="1">
+        <v>66</v>
+      </c>
+      <c r="C88" s="2">
         <v>2</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E88" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C89" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C91" s="1">
-        <v>2</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E91" s="2">
+      <c r="B91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C92" s="1">
+      <c r="B92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>73</v>
+        <v>2</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E94" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="1" t="s">
-        <v>31</v>
+      <c r="B95" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -1615,13 +1812,13 @@
     <row r="96" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="E97" s="2">
         <v>1</v>
@@ -1629,92 +1826,99 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C99" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>75</v>
+      <c r="B101" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C101" s="1">
-        <v>2</v>
-      </c>
-      <c r="D101" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C103" s="1">
+        <v>2</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C102" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C104" s="1">
-        <v>2</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E104" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C107" s="1">
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="109" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C110" s="1">
         <v>2</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E110" s="2">
         <v>1</v>
@@ -1722,7 +1926,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -1731,243 +1935,233 @@
     <row r="112" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="2">
+        <v>76</v>
+      </c>
+      <c r="C113" s="1">
         <v>2</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E113" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C115" s="1">
-        <v>2</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E116" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C117" s="2">
-        <v>3</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="1" t="s">
+      <c r="B117" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="2">
+        <v>2</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C118" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C119" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E119" s="2">
+        <v>2</v>
+      </c>
+    </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C121" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E121" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C122" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" s="2">
+        <v>3</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" s="1">
-        <v>3</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E124" s="2">
-        <v>1</v>
+      <c r="B124" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="1">
+        <v>4</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="1">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E131" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C130" s="1">
-        <v>3</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E130" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C131" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="C133" s="1">
-        <v>3</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E133" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C134" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C136" s="1">
-        <v>3</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E136" s="2">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B137" s="1" t="s">
-        <v>44</v>
+      <c r="A137" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C137" s="1">
+        <v>3</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E137" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B138" s="1" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="C138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B139" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C139" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B140" s="1" t="s">
-        <v>41</v>
+      <c r="A140" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C140" s="1">
+        <v>3</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E140" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B141" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="C141" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C143" s="1">
         <v>3</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="E143" s="2">
         <v>1</v>
@@ -1975,85 +2169,85 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C144" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B145" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C145" s="1">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="145" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B146" s="1" t="s">
-        <v>48</v>
+      <c r="A146" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C146" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C148" s="1">
-        <v>3</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E148" s="2">
-        <v>1</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B149" s="1" t="s">
-        <v>36</v>
+      <c r="A149" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C149" s="1">
+        <v>3</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C150" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C151" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B152" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>86</v>
+      <c r="B153" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C153" s="1">
-        <v>3</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E153" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B154" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C154" s="1">
         <v>2</v>
@@ -2062,13 +2256,13 @@
     <row r="155" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C156" s="1">
         <v>3</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E156" s="2">
         <v>1</v>
@@ -2076,7 +2270,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C157" s="1">
         <v>2</v>
@@ -2084,316 +2278,316 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="1">
-        <v>3</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E160" s="2">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B161" s="1" t="s">
-        <v>67</v>
+      <c r="A161" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C161" s="1">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="C162" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C163" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C165" s="1">
-        <v>3</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E165" s="2">
-        <v>1</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B166" s="1" t="s">
-        <v>67</v>
+      <c r="A166" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C166" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C168" s="1">
-        <v>3</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E168" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="2" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E166" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C169" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B170" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C171" s="2">
-        <v>3</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E171" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B172" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C172" s="2">
-        <v>2</v>
+      <c r="B171" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="1">
+        <v>3</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>90</v>
+      <c r="B174" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C174" s="1">
-        <v>4</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E174" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B175" s="3" t="s">
-        <v>72</v>
+      <c r="B175" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C175" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B176" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C176" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B177" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C177" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" s="1">
+        <v>3</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>91</v>
+      <c r="B179" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C179" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C181" s="1">
         <v>4</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E179" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B180" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C180" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B181" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C181" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
-        <v>92</v>
+      <c r="D181" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E181" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C182" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C183" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C185" s="2">
         <v>4</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E183" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B184" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C184" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B185" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C185" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="D185" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B186" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C186" s="2">
+        <v>2</v>
+      </c>
+    </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" s="1">
+      <c r="B187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C189" s="1">
         <v>4</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E187" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B188" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C188" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B189" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C189" s="1">
-        <v>3</v>
+      <c r="D189" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="1" t="s">
-        <v>42</v>
+      <c r="B190" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C190" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2</v>
+      </c>
+    </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>9</v>
+      <c r="B192" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C192" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C194" s="1">
         <v>4</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E192" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B193" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C193" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B194" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C194" s="1">
+      <c r="D194" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E194" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C195" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B196" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C196" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C198" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E198" s="2">
         <v>1</v>
@@ -2401,30 +2595,30 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C199" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C200" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="C202" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E202" s="2">
         <v>1</v>
@@ -2432,231 +2626,231 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B203" s="1" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C203" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C206" s="1">
-        <v>6</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E206" s="2">
-        <v>1</v>
-      </c>
-    </row>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B204" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C204" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B205" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B207" s="3" t="s">
-        <v>72</v>
+      <c r="A207" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C207" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E207" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B208" s="1" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C208" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B209" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C209" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B210" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B211" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C211" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C213" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C211" s="1">
+      <c r="D213" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E213" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C214" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B215" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C215" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C217" s="1">
+        <v>5</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E217" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B218" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C218" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" s="1">
         <v>6</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E211" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B212" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C212" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B213" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C213" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C215" s="1">
-        <v>5</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E215" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B216" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C216" s="1">
+      <c r="D221" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B222" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C222" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B223" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C223" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C218" s="1">
-        <v>6</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E218" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B219" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C219" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B220" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C220" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B221" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C221" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C223" s="1">
-        <v>6</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E223" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B224" s="1" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C224" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B225" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C225" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C226" s="1">
+        <v>6</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E226" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>98</v>
+      <c r="B227" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C227" s="1">
-        <v>6</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E227" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B228" s="1" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C228" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B229" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C229" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C230" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B230" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C230" s="1">
+      <c r="D230" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E230" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B231" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C231" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C233" s="1">
         <v>6</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E233" s="2">
         <v>1</v>
@@ -2664,452 +2858,453 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B234" s="1" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="C234" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C235" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B236" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C236" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C237" s="1">
+    <row r="237" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C238" s="1">
         <v>6</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E237" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B238" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C238" s="1">
-        <v>2</v>
+      <c r="D238" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E238" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B239" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C239" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B240" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C240" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C242" s="1">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B241" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C241" s="1">
         <v>4</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E242" s="2">
-        <v>1</v>
-      </c>
-    </row>
+    </row>
+    <row r="242" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B243" s="1" t="s">
-        <v>72</v>
+      <c r="A243" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C243" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C244" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>6</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B244" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C244" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B245" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C245" s="1">
+        <v>5</v>
+      </c>
+    </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
-        <v>17</v>
+      <c r="B246" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C246" s="1">
-        <v>6</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E246" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B247" s="1" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C247" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B248" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C248" s="1">
-        <v>1</v>
-      </c>
-    </row>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B249" s="1" t="s">
-        <v>89</v>
+      <c r="A249" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="C249" s="1">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B250" s="1" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C250" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B251" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C251" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B252" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C252" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B253" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C253" s="1">
-        <v>2</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B254" s="1" t="s">
-        <v>42</v>
+      <c r="A254" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="C254" s="1">
+        <v>6</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B255" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C255" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B256" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C256" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>13</v>
+      <c r="B257" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C257" s="1">
-        <v>7</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E257" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B258" s="1" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C258" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B259" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C259" s="1">
-        <v>6</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B260" s="1" t="s">
-        <v>44</v>
+      <c r="A260" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="C260" s="1">
+        <v>4</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B261" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C261" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C263" s="1">
-        <v>7</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E263" s="2">
-        <v>1</v>
-      </c>
-    </row>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C262" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B264" s="1" t="s">
-        <v>74</v>
+      <c r="A264" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C264" s="1">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E264" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B265" s="1" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="C265" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B266" s="1" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="C266" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B267" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C267" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B268" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C268" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B269" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C269" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>14</v>
+      <c r="B270" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C270" s="1">
-        <v>7</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E270" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B271" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C271" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B272" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C272" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B273" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C273" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B274" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C274" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C275" s="1">
+        <v>7</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E275" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>11</v>
+      <c r="B276" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C276" s="1">
-        <v>6</v>
-      </c>
-      <c r="D276" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E276" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B277" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C277" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B278" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>102</v>
+      <c r="B279" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="C279" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C281" s="1">
         <v>7</v>
       </c>
-      <c r="D279" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E279" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B280" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C280" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B281" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C281" s="1">
-        <v>2</v>
+      <c r="D281" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E281" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B282" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C282" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B283" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C283" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>102</v>
+      <c r="B284" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="C284" s="1">
-        <v>7</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E284" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B285" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C285" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B286" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C286" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B287" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C287" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C288" s="1">
+        <v>7</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E288" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B289" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C289" s="1">
         <v>6</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C289" s="1">
-        <v>7</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E289" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B290" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C290" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B291" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C291" s="1">
         <v>3</v>
@@ -3117,207 +3312,201 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B292" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C292" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B293" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C293" s="1">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="293" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B294" s="1" t="s">
-        <v>99</v>
+      <c r="A294" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C294" s="1">
         <v>6</v>
       </c>
+      <c r="D294" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E294" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B295" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C295" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B296" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C296" s="1">
-        <v>3</v>
-      </c>
-    </row>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B297" s="1" t="s">
-        <v>94</v>
+      <c r="A297" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C297" s="1">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E297" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B298" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C298" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B299" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C299" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B300" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C300" s="1">
         <v>6</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E298" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C300" s="1">
-        <v>7</v>
-      </c>
-      <c r="D300" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E300" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B301" s="1" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C301" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B302" s="1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="C302" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B303" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C303" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C304" s="1">
+        <v>7</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E304" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
-        <v>19</v>
+      <c r="B305" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="C305" s="1">
-        <v>8</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E305" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B306" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C306" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B307" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C307" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B308" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C308" s="1">
-        <v>5</v>
-      </c>
-    </row>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B309" s="1" t="s">
-        <v>103</v>
+      <c r="A309" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C309" s="1">
         <v>7</v>
       </c>
+      <c r="D309" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E309" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B310" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C310" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B311" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C311" s="1">
+        <v>3</v>
+      </c>
+    </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
-        <v>104</v>
+      <c r="B312" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C312" s="1">
-        <v>8</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E312" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B313" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C313" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B314" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C314" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B315" s="1" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C315" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B316" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C316" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B317" s="1" t="s">
         <v>93</v>
       </c>
@@ -3325,64 +3514,226 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="319" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B318" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C318" s="1">
+        <v>6</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E318" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C320" s="1">
+        <v>7</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E320" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B321" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C321" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B322" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C322" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B323" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C323" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C325" s="1">
+        <v>8</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E325" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B326" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C326" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B327" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C327" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B328" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C328" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B329" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C329" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B330" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C330" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C332" s="1">
+        <v>8</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E332" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B333" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C333" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B334" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C334" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B335" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C335" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B336" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C336" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C337" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C319" s="1">
+      <c r="C339" s="1">
         <v>8</v>
       </c>
-      <c r="D319" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E319" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C320" s="1">
+      <c r="D339" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E339" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C340" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C321" s="1">
+    <row r="341" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C341" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C323" s="1">
+      <c r="C343" s="1">
         <v>10</v>
       </c>
-      <c r="D323" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E323" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B324" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C324" s="1">
+      <c r="D343" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E343" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B344" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C344" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B325" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C325" s="1">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B345" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C345" s="1">
         <v>11</v>
       </c>
     </row>

--- a/Dépendances-Vue.xlsx
+++ b/Dépendances-Vue.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\asocial-doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D2399-4F40-4CF0-A978-7255D604DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C60A894-FB01-470D-87C9-3886642F2F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="645" windowWidth="13650" windowHeight="14910" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15000" yWindow="570" windowWidth="13650" windowHeight="14910" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vues" sheetId="1" r:id="rId1"/>
+    <sheet name="mjs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="130">
   <si>
     <t>App</t>
   </si>
@@ -370,6 +371,51 @@
   </si>
   <si>
     <t>FiltreRac</t>
+  </si>
+  <si>
+    <t>api.mjs</t>
+  </si>
+  <si>
+    <t>base64.mjs</t>
+  </si>
+  <si>
+    <t>config.mjs</t>
+  </si>
+  <si>
+    <t>connexion.mjs</t>
+  </si>
+  <si>
+    <t>operations.mjs</t>
+  </si>
+  <si>
+    <t>sync.mjs</t>
+  </si>
+  <si>
+    <t>util.mjs</t>
+  </si>
+  <si>
+    <t>net.mjs</t>
+  </si>
+  <si>
+    <t>db.mjs</t>
+  </si>
+  <si>
+    <t>webcrypto.mjs</t>
+  </si>
+  <si>
+    <t>ws.mjs</t>
+  </si>
+  <si>
+    <t>modele.mjs</t>
+  </si>
+  <si>
+    <t>fssync.mjs</t>
+  </si>
+  <si>
+    <t>help.mjs</t>
+  </si>
+  <si>
+    <t>operation.mjs</t>
   </si>
 </sst>
 </file>
@@ -748,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A181" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1096,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>4</v>
@@ -1058,28 +1104,34 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
         <v>105</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>22</v>
+      <c r="A34" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1093,7 +1145,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1107,7 +1159,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
@@ -1120,8 +1172,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>25</v>
+      <c r="A37" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
@@ -1135,7 +1187,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
@@ -1149,7 +1201,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1161,23 +1213,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1191,7 +1243,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1205,7 +1257,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
@@ -1219,7 +1271,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" s="1">
         <v>1</v>
@@ -1233,7 +1285,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1247,7 +1299,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
@@ -1261,7 +1313,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1">
         <v>1</v>
@@ -1275,7 +1327,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C49" s="1">
         <v>1</v>
@@ -1289,7 +1341,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C50" s="1">
         <v>1</v>
@@ -1303,7 +1355,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="C51" s="1">
         <v>1</v>
@@ -1317,7 +1369,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C52" s="1">
         <v>1</v>
@@ -1331,7 +1383,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="1">
         <v>1</v>
@@ -1345,7 +1397,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -1359,7 +1411,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
@@ -1373,7 +1425,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -1387,7 +1439,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
@@ -1400,31 +1452,31 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
+      <c r="A58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E60" s="2">
         <v>1</v>
@@ -1432,7 +1484,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1">
         <v>1</v>
@@ -1446,7 +1498,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C62" s="1">
         <v>1</v>
@@ -1460,7 +1512,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -1474,7 +1526,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="C64" s="1">
         <v>1</v>
@@ -1488,7 +1540,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="C65" s="1">
         <v>1</v>
@@ -1502,7 +1554,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C66" s="1">
         <v>1</v>
@@ -1516,7 +1568,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="C67" s="1">
         <v>1</v>
@@ -1530,7 +1582,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C68" s="1">
         <v>1</v>
@@ -1544,7 +1596,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -1558,7 +1610,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -1572,7 +1624,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C71" s="1">
         <v>1</v>
@@ -1586,7 +1638,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C72" s="1">
         <v>1</v>
@@ -1600,7 +1652,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C73" s="1">
         <v>1</v>
@@ -1614,63 +1666,63 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C74" s="1">
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E74" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>1</v>
+      <c r="A75" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C75" s="1">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E75" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="1">
-        <v>1</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="1">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" s="1">
         <v>1</v>
@@ -1684,79 +1736,73 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="1">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E81" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C82" s="1">
-        <v>1</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E82" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="C84" s="2">
-        <v>2</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E84" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C86" s="2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="2">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>66</v>
+      <c r="B88" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C88" s="2">
-        <v>2</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
@@ -1764,321 +1810,321 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B91" s="1" t="s">
-        <v>34</v>
+      <c r="B91" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C91" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>2</v>
+      <c r="B94" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="1">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>70</v>
+      <c r="B97" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C97" s="1">
-        <v>2</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C100" s="1">
-        <v>2</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C101" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>73</v>
+      <c r="B103" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C103" s="1">
-        <v>2</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C104" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B105" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C105" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>74</v>
+      <c r="B107" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C107" s="1">
-        <v>2</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="1">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>75</v>
+      <c r="B110" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C110" s="1">
-        <v>2</v>
-      </c>
-      <c r="D110" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E110" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C111" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C113" s="1">
-        <v>2</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>77</v>
+      <c r="B116" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C116" s="1">
-        <v>2</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C117" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" s="2">
-        <v>2</v>
-      </c>
-      <c r="D119" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="2">
+        <v>2</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E119" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="E118" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C121" s="1">
-        <v>2</v>
-      </c>
-      <c r="D121" s="2" t="s">
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" s="2">
+        <v>3</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>71</v>
+      <c r="B123" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C123" s="2">
-        <v>3</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E123" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" s="1">
+        <v>4</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C124" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C127" s="1">
-        <v>4</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E127" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C128" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C129" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" s="1">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E130" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>6</v>
+      <c r="B131" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C131" s="1">
-        <v>3</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E131" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B132" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C132" s="1">
         <v>1</v>
@@ -2086,136 +2132,136 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B133" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B134" s="1" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C134" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B135" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>27</v>
+      <c r="B137" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="C137" s="1">
-        <v>3</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E137" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B138" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C138" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C140" s="1">
-        <v>3</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E140" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B141" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C141" s="1">
-        <v>2</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>79</v>
+      <c r="B143" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C143" s="1">
-        <v>3</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E143" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B144" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C144" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E145" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>80</v>
+      <c r="B146" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C146" s="1">
-        <v>3</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E146" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B147" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C147" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C148" s="1">
+        <v>3</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>82</v>
+      <c r="B149" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C149" s="1">
-        <v>3</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E149" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B150" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -2223,186 +2269,186 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B151" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="C151" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B152" s="1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="C152" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B153" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C153" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B154" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C154" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="1">
+        <v>3</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E155" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>83</v>
+      <c r="B156" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C156" s="1">
-        <v>3</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E156" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B157" s="1" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="C157" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B158" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C158" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B159" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C159" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C160" s="1">
+        <v>3</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>84</v>
+      <c r="B161" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C161" s="1">
-        <v>3</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E161" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B162" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C162" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="C163" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C164" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C165" s="1">
+        <v>3</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>85</v>
+      <c r="B166" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C166" s="1">
-        <v>3</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E166" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B167" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C167" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C168" s="1">
+        <v>3</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>86</v>
+      <c r="B169" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C169" s="1">
-        <v>3</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E169" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B170" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C170" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B171" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C171" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="1">
+        <v>3</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>7</v>
+      <c r="B173" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C173" s="1">
-        <v>3</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E173" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B174" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C174" s="1">
         <v>2</v>
@@ -2410,122 +2456,123 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B175" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C175" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" s="1">
+        <v>3</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B178" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C178" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C180" s="1">
+        <v>4</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E180" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C175" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B176" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C176" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" s="1">
-        <v>3</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E178" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B179" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C179" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C181" s="1">
-        <v>4</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E181" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C184" s="1">
+        <v>4</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B185" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C182" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C183" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C185" s="2">
-        <v>4</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E185" s="2">
-        <v>1</v>
+      <c r="C185" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B186" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B187" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C187" s="2">
-        <v>3</v>
-      </c>
-    </row>
+        <v>41</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C189" s="1">
         <v>4</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E189" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B190" s="3" t="s">
-        <v>71</v>
+      <c r="B190" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="C190" s="1">
         <v>3</v>
@@ -2533,92 +2580,92 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B191" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C191" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C193" s="1">
+        <v>4</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E193" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B194" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C191" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B192" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C192" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C194" s="1">
-        <v>4</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E194" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B195" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C195" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B196" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C196" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1">
+        <v>4</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E197" s="2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
-        <v>91</v>
+      <c r="B198" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C198" s="1">
-        <v>4</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E198" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B199" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C199" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B200" s="1" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="C200" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="1">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="C202" s="2">
+        <v>5</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E202" s="2">
         <v>1</v>
@@ -2628,27 +2675,26 @@
       <c r="B203" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C203" s="1">
+      <c r="C203" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B204" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C204" s="1">
+        <v>27</v>
+      </c>
+      <c r="C204" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B205" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C205" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>87</v>
+      </c>
+      <c r="C205" s="2">
+        <v>4</v>
+      </c>
+    </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>9</v>
@@ -3741,4 +3787,455 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B4FBD6-8112-40AE-93B6-DB1C507D1FBB}">
+  <dimension ref="A2:C60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>